--- a/user report/total.xlsx
+++ b/user report/total.xlsx
@@ -151,43 +151,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Albin Anthony</t>
+          <t>NILESH PAGHADAL</t>
         </is>
       </c>
       <c r="B2"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2h 30m</t>
+          <t>9h</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>NILESH PAGHADAL</t>
-        </is>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="inlineStr">
-        <is>
-          <t>4h 20m</t>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ranjith Kumar</t>
+        </is>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2h</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>Utharraj Aruchami</t>
+        </is>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>28h</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="inlineStr">
         <is>
           <t>Total:</t>
         </is>
       </c>
-      <c r="B4" s="10" t="inlineStr">
-        <is>
-          <t>12h</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>6h 50m</t>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>20h</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>39h</t>
         </is>
       </c>
     </row>
